--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8415" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offers" sheetId="1" r:id="rId1"/>
     <sheet name="Contractors" sheetId="2" r:id="rId2"/>
+    <sheet name="RouteInformation" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Stamoplysninger_tilpasset_skabelon_annonymiseret_i_csv_format" localSheetId="1">Contractors!$A$1:$I$8</definedName>
@@ -63,14 +64,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="258">
   <si>
     <t>Seqno</t>
   </si>
   <si>
-    <t>Garantivognsnummer / Garantivognsnummer:</t>
-  </si>
-  <si>
     <t>Pris / Driftstimepris i kr.:</t>
   </si>
   <si>
@@ -792,14 +790,70 @@
   </si>
   <si>
     <t>16-3455</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CarNr</t>
+  </si>
+  <si>
+    <t>CarNr (Garantivognsnummer)</t>
+  </si>
+  <si>
+    <t>Avability Weekdays</t>
+  </si>
+  <si>
+    <t>Avability Weekend</t>
+  </si>
+  <si>
+    <t>Avability Holidays</t>
+  </si>
+  <si>
+    <t>OUH</t>
+  </si>
+  <si>
+    <t>Ørbækvej 350</t>
+  </si>
+  <si>
+    <t>06.00-15.30</t>
+  </si>
+  <si>
+    <t>07.00-16.30</t>
+  </si>
+  <si>
+    <t>06.30-17.00</t>
+  </si>
+  <si>
+    <t>06.00-16.30</t>
+  </si>
+  <si>
+    <t>Warranty Weekdays</t>
+  </si>
+  <si>
+    <t>Warranty Weekend</t>
+  </si>
+  <si>
+    <t>Warranty Holidays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -827,8 +881,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,12 +1210,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
@@ -1172,30 +1231,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1204,18 +1263,18 @@
         <v>284</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1224,18 +1283,18 @@
         <v>291</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1244,18 +1303,18 @@
         <v>295</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1264,18 +1323,18 @@
         <v>307</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -1284,18 +1343,18 @@
         <v>298</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -1304,18 +1363,18 @@
         <v>296</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1324,18 +1383,18 @@
         <v>288</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1344,18 +1403,18 @@
         <v>295</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -1364,18 +1423,18 @@
         <v>288</v>
       </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -1384,18 +1443,18 @@
         <v>284</v>
       </c>
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -1404,18 +1463,18 @@
         <v>291</v>
       </c>
       <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -1424,18 +1483,18 @@
         <v>282</v>
       </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -1444,18 +1503,18 @@
         <v>289</v>
       </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1464,18 +1523,18 @@
         <v>285</v>
       </c>
       <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1484,18 +1543,18 @@
         <v>289</v>
       </c>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>22</v>
@@ -1504,18 +1563,18 @@
         <v>296</v>
       </c>
       <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -1524,18 +1583,18 @@
         <v>288</v>
       </c>
       <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>2500</v>
@@ -1544,18 +1603,18 @@
         <v>367</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>2502</v>
@@ -1564,18 +1623,18 @@
         <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>2503</v>
@@ -1584,18 +1643,18 @@
         <v>310</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>2504</v>
@@ -1604,18 +1663,18 @@
         <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>2505</v>
@@ -1624,18 +1683,18 @@
         <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>2506</v>
@@ -1644,18 +1703,18 @@
         <v>306</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>2507</v>
@@ -1664,18 +1723,18 @@
         <v>302</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>2508</v>
@@ -1684,18 +1743,18 @@
         <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>2509</v>
@@ -1704,18 +1763,18 @@
         <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>2510</v>
@@ -1724,18 +1783,18 @@
         <v>333</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>2511</v>
@@ -1744,18 +1803,18 @@
         <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>2512</v>
@@ -1764,18 +1823,18 @@
         <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>2513</v>
@@ -1784,18 +1843,18 @@
         <v>321</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>2514</v>
@@ -1804,18 +1863,18 @@
         <v>321</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>2515</v>
@@ -1824,18 +1883,18 @@
         <v>335</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>2516</v>
@@ -1844,18 +1903,18 @@
         <v>342</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>2517</v>
@@ -1864,18 +1923,18 @@
         <v>333</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>2518</v>
@@ -1884,18 +1943,18 @@
         <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>2519</v>
@@ -1904,18 +1963,18 @@
         <v>330</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>2520</v>
@@ -1924,18 +1983,18 @@
         <v>327</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>2521</v>
@@ -1944,18 +2003,18 @@
         <v>330</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>2522</v>
@@ -1964,18 +2023,18 @@
         <v>331</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>2523</v>
@@ -1984,13 +2043,13 @@
         <v>323</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1998,7 +2057,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>2524</v>
@@ -2007,18 +2066,18 @@
         <v>333</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>2525</v>
@@ -2027,18 +2086,18 @@
         <v>326</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>2526</v>
@@ -2047,18 +2106,18 @@
         <v>320</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>2527</v>
@@ -2067,18 +2126,18 @@
         <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>2528</v>
@@ -2087,18 +2146,18 @@
         <v>341</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>2529</v>
@@ -2107,18 +2166,18 @@
         <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>2530</v>
@@ -2127,18 +2186,18 @@
         <v>356</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>2531</v>
@@ -2147,18 +2206,18 @@
         <v>333</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>2532</v>
@@ -2167,18 +2226,18 @@
         <v>325</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>2533</v>
@@ -2187,18 +2246,18 @@
         <v>333</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>2534</v>
@@ -2207,18 +2266,18 @@
         <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>2535</v>
@@ -2227,18 +2286,18 @@
         <v>333</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>2536</v>
@@ -2247,18 +2306,18 @@
         <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>2537</v>
@@ -2267,18 +2326,18 @@
         <v>342</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <v>2538</v>
@@ -2287,18 +2346,18 @@
         <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <v>2539</v>
@@ -2307,18 +2366,18 @@
         <v>360</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>2540</v>
@@ -2327,18 +2386,18 @@
         <v>367</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>2541</v>
@@ -2347,18 +2406,18 @@
         <v>336</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>2542</v>
@@ -2367,18 +2426,18 @@
         <v>360</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>2543</v>
@@ -2387,18 +2446,18 @@
         <v>367</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>2544</v>
@@ -2407,18 +2466,18 @@
         <v>367</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>2545</v>
@@ -2427,18 +2486,18 @@
         <v>367</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>2546</v>
@@ -2447,18 +2506,18 @@
         <v>360</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>2547</v>
@@ -2467,18 +2526,18 @@
         <v>367</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>2548</v>
@@ -2487,18 +2546,18 @@
         <v>302</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67">
         <v>2549</v>
@@ -2507,18 +2566,18 @@
         <v>326</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>2550</v>
@@ -2527,18 +2586,18 @@
         <v>321</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>2551</v>
@@ -2547,18 +2606,18 @@
         <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70">
         <v>2552</v>
@@ -2567,18 +2626,18 @@
         <v>349</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>2553</v>
@@ -2587,18 +2646,18 @@
         <v>302</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72">
         <v>2554</v>
@@ -2607,18 +2666,18 @@
         <v>314</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73">
         <v>2555</v>
@@ -2627,18 +2686,18 @@
         <v>344</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>2556</v>
@@ -2647,18 +2706,18 @@
         <v>326</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75">
         <v>2557</v>
@@ -2667,18 +2726,18 @@
         <v>367</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76">
         <v>2558</v>
@@ -2687,18 +2746,18 @@
         <v>364</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77">
         <v>2559</v>
@@ -2707,18 +2766,18 @@
         <v>333</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78">
         <v>2560</v>
@@ -2727,18 +2786,18 @@
         <v>344</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79">
         <v>2561</v>
@@ -2747,18 +2806,18 @@
         <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80">
         <v>2563</v>
@@ -2767,18 +2826,18 @@
         <v>313</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81">
         <v>2564</v>
@@ -2787,18 +2846,18 @@
         <v>310</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82">
         <v>2565</v>
@@ -2807,18 +2866,18 @@
         <v>321</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83">
         <v>2566</v>
@@ -2827,18 +2886,18 @@
         <v>337</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84">
         <v>2567</v>
@@ -2847,18 +2906,18 @@
         <v>356</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85">
         <v>2568</v>
@@ -2867,18 +2926,18 @@
         <v>349</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>2569</v>
@@ -2887,18 +2946,18 @@
         <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <v>2570</v>
@@ -2907,18 +2966,18 @@
         <v>344</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>2571</v>
@@ -2927,18 +2986,18 @@
         <v>333</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <v>2572</v>
@@ -2947,18 +3006,18 @@
         <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>2573</v>
@@ -2967,18 +3026,18 @@
         <v>333</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>2574</v>
@@ -2987,18 +3046,18 @@
         <v>310</v>
       </c>
       <c r="D91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92">
         <v>2575</v>
@@ -3007,18 +3066,18 @@
         <v>321</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93">
         <v>2576</v>
@@ -3027,18 +3086,18 @@
         <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94">
         <v>2577</v>
@@ -3047,18 +3106,18 @@
         <v>344</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>2578</v>
@@ -3067,18 +3126,18 @@
         <v>356</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96">
         <v>2579</v>
@@ -3087,18 +3146,18 @@
         <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97">
         <v>2580</v>
@@ -3107,18 +3166,18 @@
         <v>344</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98">
         <v>2581</v>
@@ -3127,18 +3186,18 @@
         <v>333</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99">
         <v>2582</v>
@@ -3147,18 +3206,18 @@
         <v>344</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100">
         <v>2583</v>
@@ -3167,18 +3226,18 @@
         <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101">
         <v>26</v>
@@ -3187,18 +3246,18 @@
         <v>288</v>
       </c>
       <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102">
         <v>27</v>
@@ -3207,18 +3266,18 @@
         <v>402</v>
       </c>
       <c r="D102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" t="s">
         <v>118</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>119</v>
-      </c>
-      <c r="F102" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103">
         <v>27</v>
@@ -3227,18 +3286,18 @@
         <v>343</v>
       </c>
       <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
         <v>9</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -3247,18 +3306,18 @@
         <v>282</v>
       </c>
       <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -3267,18 +3326,18 @@
         <v>289</v>
       </c>
       <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
         <v>13</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>14</v>
-      </c>
-      <c r="F105" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -3287,18 +3346,18 @@
         <v>406</v>
       </c>
       <c r="D106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" t="s">
         <v>118</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>119</v>
-      </c>
-      <c r="F106" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107">
         <v>33</v>
@@ -3307,18 +3366,18 @@
         <v>406</v>
       </c>
       <c r="D107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" t="s">
         <v>118</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>119</v>
-      </c>
-      <c r="F107" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>34</v>
@@ -3327,18 +3386,18 @@
         <v>406</v>
       </c>
       <c r="D108" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" t="s">
         <v>118</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>119</v>
-      </c>
-      <c r="F108" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109">
         <v>34</v>
@@ -3347,18 +3406,18 @@
         <v>344</v>
       </c>
       <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
         <v>9</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>36</v>
@@ -3367,18 +3426,18 @@
         <v>406</v>
       </c>
       <c r="D110" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" t="s">
         <v>118</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>119</v>
-      </c>
-      <c r="F110" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111">
         <v>36</v>
@@ -3387,18 +3446,18 @@
         <v>344</v>
       </c>
       <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
         <v>9</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112">
         <v>38</v>
@@ -3407,18 +3466,18 @@
         <v>406</v>
       </c>
       <c r="D112" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" t="s">
         <v>118</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>119</v>
-      </c>
-      <c r="F112" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113">
         <v>39</v>
@@ -3427,18 +3486,18 @@
         <v>406</v>
       </c>
       <c r="D113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" t="s">
         <v>118</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>119</v>
-      </c>
-      <c r="F113" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114">
         <v>39</v>
@@ -3447,18 +3506,18 @@
         <v>344</v>
       </c>
       <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -3467,18 +3526,18 @@
         <v>280</v>
       </c>
       <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
         <v>9</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>10</v>
-      </c>
-      <c r="F115" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -3487,18 +3546,18 @@
         <v>294</v>
       </c>
       <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
         <v>13</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117">
         <v>4005</v>
@@ -3507,18 +3566,18 @@
         <v>368</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118">
         <v>4006</v>
@@ -3527,18 +3586,18 @@
         <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119">
         <v>4007</v>
@@ -3547,18 +3606,18 @@
         <v>349</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120">
         <v>4008</v>
@@ -3567,18 +3626,18 @@
         <v>349</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121">
         <v>4025</v>
@@ -3587,18 +3646,18 @@
         <v>336</v>
       </c>
       <c r="D121" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" t="s">
         <v>140</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>141</v>
-      </c>
-      <c r="F121" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122">
         <v>4026</v>
@@ -3607,18 +3666,18 @@
         <v>336</v>
       </c>
       <c r="D122" t="s">
+        <v>139</v>
+      </c>
+      <c r="E122" t="s">
         <v>140</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>141</v>
-      </c>
-      <c r="F122" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B123">
         <v>4027</v>
@@ -3627,18 +3686,18 @@
         <v>336</v>
       </c>
       <c r="D123" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123" t="s">
         <v>140</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>141</v>
-      </c>
-      <c r="F123" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B124">
         <v>4028</v>
@@ -3647,18 +3706,18 @@
         <v>336</v>
       </c>
       <c r="D124" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" t="s">
         <v>140</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>141</v>
-      </c>
-      <c r="F124" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125">
         <v>4028</v>
@@ -3667,18 +3726,18 @@
         <v>344</v>
       </c>
       <c r="D125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" t="s">
         <v>147</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>148</v>
-      </c>
-      <c r="F125" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126">
         <v>4029</v>
@@ -3687,18 +3746,18 @@
         <v>336</v>
       </c>
       <c r="D126" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" t="s">
         <v>140</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>141</v>
-      </c>
-      <c r="F126" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B127">
         <v>4029</v>
@@ -3707,18 +3766,18 @@
         <v>344</v>
       </c>
       <c r="D127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" t="s">
         <v>152</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>153</v>
-      </c>
-      <c r="F127" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128">
         <v>4030</v>
@@ -3727,18 +3786,18 @@
         <v>336</v>
       </c>
       <c r="D128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" t="s">
         <v>140</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>141</v>
-      </c>
-      <c r="F128" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B129">
         <v>4031</v>
@@ -3747,18 +3806,18 @@
         <v>336</v>
       </c>
       <c r="D129" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" t="s">
         <v>140</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>141</v>
-      </c>
-      <c r="F129" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130">
         <v>4032</v>
@@ -3767,18 +3826,18 @@
         <v>336</v>
       </c>
       <c r="D130" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" t="s">
         <v>140</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>141</v>
-      </c>
-      <c r="F130" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B131">
         <v>4035</v>
@@ -3787,18 +3846,18 @@
         <v>336</v>
       </c>
       <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" t="s">
         <v>140</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>141</v>
-      </c>
-      <c r="F131" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B132">
         <v>4036</v>
@@ -3807,18 +3866,18 @@
         <v>336</v>
       </c>
       <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" t="s">
         <v>140</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>141</v>
-      </c>
-      <c r="F132" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133">
         <v>4037</v>
@@ -3827,18 +3886,18 @@
         <v>336</v>
       </c>
       <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
         <v>140</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>141</v>
-      </c>
-      <c r="F133" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134">
         <v>4038</v>
@@ -3847,18 +3906,18 @@
         <v>336</v>
       </c>
       <c r="D134" t="s">
+        <v>139</v>
+      </c>
+      <c r="E134" t="s">
         <v>140</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>141</v>
-      </c>
-      <c r="F134" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135">
         <v>4039</v>
@@ -3867,18 +3926,18 @@
         <v>336</v>
       </c>
       <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" t="s">
         <v>140</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>141</v>
-      </c>
-      <c r="F135" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B136">
         <v>4040</v>
@@ -3887,18 +3946,18 @@
         <v>336</v>
       </c>
       <c r="D136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136" t="s">
         <v>140</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>141</v>
-      </c>
-      <c r="F136" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137">
         <v>4045</v>
@@ -3907,18 +3966,18 @@
         <v>333</v>
       </c>
       <c r="D137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B138">
         <v>4046</v>
@@ -3927,18 +3986,18 @@
         <v>337</v>
       </c>
       <c r="D138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B139">
         <v>4047</v>
@@ -3947,18 +4006,18 @@
         <v>344</v>
       </c>
       <c r="D139" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" t="s">
         <v>152</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>153</v>
-      </c>
-      <c r="F139" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140">
         <v>4048</v>
@@ -3967,18 +4026,18 @@
         <v>336</v>
       </c>
       <c r="D140" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140" t="s">
         <v>140</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>141</v>
-      </c>
-      <c r="F140" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141">
         <v>4049</v>
@@ -3987,18 +4046,18 @@
         <v>336</v>
       </c>
       <c r="D141" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141" t="s">
         <v>140</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>141</v>
-      </c>
-      <c r="F141" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142">
         <v>4055</v>
@@ -4007,18 +4066,18 @@
         <v>343</v>
       </c>
       <c r="D142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143">
         <v>4056</v>
@@ -4027,18 +4086,18 @@
         <v>330</v>
       </c>
       <c r="D143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144">
         <v>4063</v>
@@ -4047,18 +4106,18 @@
         <v>310</v>
       </c>
       <c r="D144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B145">
         <v>4064</v>
@@ -4067,18 +4126,18 @@
         <v>310</v>
       </c>
       <c r="D145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B146">
         <v>4065</v>
@@ -4087,18 +4146,18 @@
         <v>310</v>
       </c>
       <c r="D146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147">
         <v>4066</v>
@@ -4107,18 +4166,18 @@
         <v>303</v>
       </c>
       <c r="D147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B148">
         <v>4067</v>
@@ -4127,18 +4186,18 @@
         <v>303</v>
       </c>
       <c r="D148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B149">
         <v>4068</v>
@@ -4147,18 +4206,18 @@
         <v>303</v>
       </c>
       <c r="D149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150">
         <v>4069</v>
@@ -4167,18 +4226,18 @@
         <v>303</v>
       </c>
       <c r="D150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B151">
         <v>4070</v>
@@ -4187,18 +4246,18 @@
         <v>310</v>
       </c>
       <c r="D151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B152">
         <v>4071</v>
@@ -4207,18 +4266,18 @@
         <v>303</v>
       </c>
       <c r="D152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B153">
         <v>4073</v>
@@ -4227,18 +4286,18 @@
         <v>289</v>
       </c>
       <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
         <v>13</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>14</v>
-      </c>
-      <c r="F153" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B154">
         <v>4074</v>
@@ -4247,18 +4306,18 @@
         <v>289</v>
       </c>
       <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
         <v>13</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>14</v>
-      </c>
-      <c r="F154" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B155">
         <v>4075</v>
@@ -4267,18 +4326,18 @@
         <v>289</v>
       </c>
       <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
         <v>13</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>14</v>
-      </c>
-      <c r="F155" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B156">
         <v>4076</v>
@@ -4287,18 +4346,18 @@
         <v>289</v>
       </c>
       <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
         <v>13</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>14</v>
-      </c>
-      <c r="F156" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B157">
         <v>4078</v>
@@ -4307,18 +4366,18 @@
         <v>289</v>
       </c>
       <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
         <v>13</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>14</v>
-      </c>
-      <c r="F157" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B158">
         <v>4079</v>
@@ -4327,18 +4386,18 @@
         <v>305</v>
       </c>
       <c r="D158" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" t="s">
         <v>140</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>141</v>
-      </c>
-      <c r="F158" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B159">
         <v>4079</v>
@@ -4347,18 +4406,18 @@
         <v>289</v>
       </c>
       <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
         <v>13</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>14</v>
-      </c>
-      <c r="F159" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B160">
         <v>4080</v>
@@ -4367,18 +4426,18 @@
         <v>305</v>
       </c>
       <c r="D160" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160" t="s">
         <v>140</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>141</v>
-      </c>
-      <c r="F160" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B161">
         <v>4080</v>
@@ -4387,18 +4446,18 @@
         <v>291</v>
       </c>
       <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
         <v>13</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>14</v>
-      </c>
-      <c r="F161" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B162">
         <v>4081</v>
@@ -4407,18 +4466,18 @@
         <v>305</v>
       </c>
       <c r="D162" t="s">
+        <v>139</v>
+      </c>
+      <c r="E162" t="s">
         <v>140</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>141</v>
-      </c>
-      <c r="F162" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B163">
         <v>4081</v>
@@ -4427,18 +4486,18 @@
         <v>292</v>
       </c>
       <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
         <v>13</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>14</v>
-      </c>
-      <c r="F163" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B164">
         <v>4082</v>
@@ -4447,18 +4506,18 @@
         <v>305</v>
       </c>
       <c r="D164" t="s">
+        <v>139</v>
+      </c>
+      <c r="E164" t="s">
         <v>140</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>141</v>
-      </c>
-      <c r="F164" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B165">
         <v>4082</v>
@@ -4467,18 +4526,18 @@
         <v>289</v>
       </c>
       <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
         <v>13</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>14</v>
-      </c>
-      <c r="F165" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B166">
         <v>4083</v>
@@ -4487,18 +4546,18 @@
         <v>305</v>
       </c>
       <c r="D166" t="s">
+        <v>139</v>
+      </c>
+      <c r="E166" t="s">
         <v>140</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>141</v>
-      </c>
-      <c r="F166" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B167">
         <v>4083</v>
@@ -4507,18 +4566,18 @@
         <v>289</v>
       </c>
       <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
         <v>13</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>14</v>
-      </c>
-      <c r="F167" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B168">
         <v>4084</v>
@@ -4527,18 +4586,18 @@
         <v>302</v>
       </c>
       <c r="D168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B169">
         <v>4084</v>
@@ -4547,18 +4606,18 @@
         <v>305</v>
       </c>
       <c r="D169" t="s">
+        <v>139</v>
+      </c>
+      <c r="E169" t="s">
         <v>140</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>141</v>
-      </c>
-      <c r="F169" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B170">
         <v>4084</v>
@@ -4567,18 +4626,18 @@
         <v>289</v>
       </c>
       <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
         <v>13</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>14</v>
-      </c>
-      <c r="F170" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B171">
         <v>4085</v>
@@ -4587,18 +4646,18 @@
         <v>302</v>
       </c>
       <c r="D171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B172">
         <v>4085</v>
@@ -4607,18 +4666,18 @@
         <v>305</v>
       </c>
       <c r="D172" t="s">
+        <v>139</v>
+      </c>
+      <c r="E172" t="s">
         <v>140</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>141</v>
-      </c>
-      <c r="F172" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B173">
         <v>4085</v>
@@ -4627,18 +4686,18 @@
         <v>289</v>
       </c>
       <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
         <v>13</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>14</v>
-      </c>
-      <c r="F173" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B174">
         <v>4086</v>
@@ -4647,18 +4706,18 @@
         <v>302</v>
       </c>
       <c r="D174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B175">
         <v>4086</v>
@@ -4667,18 +4726,18 @@
         <v>305</v>
       </c>
       <c r="D175" t="s">
+        <v>139</v>
+      </c>
+      <c r="E175" t="s">
         <v>140</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>141</v>
-      </c>
-      <c r="F175" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B176">
         <v>4086</v>
@@ -4687,18 +4746,18 @@
         <v>289</v>
       </c>
       <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
         <v>13</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>14</v>
-      </c>
-      <c r="F176" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B177">
         <v>4087</v>
@@ -4707,18 +4766,18 @@
         <v>295</v>
       </c>
       <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
         <v>13</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>14</v>
-      </c>
-      <c r="F177" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B178">
         <v>4087</v>
@@ -4727,18 +4786,18 @@
         <v>338</v>
       </c>
       <c r="D178" t="s">
+        <v>151</v>
+      </c>
+      <c r="E178" t="s">
         <v>152</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>153</v>
-      </c>
-      <c r="F178" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179">
         <v>4088</v>
@@ -4747,18 +4806,18 @@
         <v>295</v>
       </c>
       <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
         <v>13</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>14</v>
-      </c>
-      <c r="F179" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B180">
         <v>4089</v>
@@ -4767,18 +4826,18 @@
         <v>295</v>
       </c>
       <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
         <v>13</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>14</v>
-      </c>
-      <c r="F180" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B181">
         <v>4090</v>
@@ -4787,18 +4846,18 @@
         <v>291</v>
       </c>
       <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
         <v>13</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>14</v>
-      </c>
-      <c r="F181" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B182">
         <v>4091</v>
@@ -4807,18 +4866,18 @@
         <v>291</v>
       </c>
       <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
         <v>13</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>14</v>
-      </c>
-      <c r="F182" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B183">
         <v>4092</v>
@@ -4827,13 +4886,13 @@
         <v>290</v>
       </c>
       <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
         <v>13</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>14</v>
-      </c>
-      <c r="F183" t="s">
-        <v>15</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -4841,7 +4900,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B184">
         <v>4093</v>
@@ -4850,18 +4909,18 @@
         <v>302</v>
       </c>
       <c r="D184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B185">
         <v>4093</v>
@@ -4870,13 +4929,13 @@
         <v>290</v>
       </c>
       <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
         <v>13</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>14</v>
-      </c>
-      <c r="F185" t="s">
-        <v>15</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -4884,7 +4943,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B186">
         <v>4094</v>
@@ -4893,18 +4952,18 @@
         <v>290</v>
       </c>
       <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
         <v>13</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>14</v>
-      </c>
-      <c r="F186" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B187">
         <v>4095</v>
@@ -4913,18 +4972,18 @@
         <v>290</v>
       </c>
       <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
         <v>13</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>14</v>
-      </c>
-      <c r="F187" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B188">
         <v>4096</v>
@@ -4933,18 +4992,18 @@
         <v>290</v>
       </c>
       <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
         <v>13</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>14</v>
-      </c>
-      <c r="F188" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B189">
         <v>4097</v>
@@ -4953,18 +5012,18 @@
         <v>290</v>
       </c>
       <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
         <v>13</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>14</v>
-      </c>
-      <c r="F189" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B190">
         <v>4098</v>
@@ -4973,18 +5032,18 @@
         <v>290</v>
       </c>
       <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
         <v>13</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>14</v>
-      </c>
-      <c r="F190" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B191">
         <v>4099</v>
@@ -4993,18 +5052,18 @@
         <v>290</v>
       </c>
       <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
         <v>13</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>14</v>
-      </c>
-      <c r="F191" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B192">
         <v>41</v>
@@ -5013,18 +5072,18 @@
         <v>395</v>
       </c>
       <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
         <v>9</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>10</v>
-      </c>
-      <c r="F192" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B193">
         <v>43</v>
@@ -5033,18 +5092,18 @@
         <v>387</v>
       </c>
       <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
         <v>9</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>10</v>
-      </c>
-      <c r="F193" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B194">
         <v>55</v>
@@ -5053,18 +5112,18 @@
         <v>302</v>
       </c>
       <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
         <v>9</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>10</v>
-      </c>
-      <c r="F194" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B195">
         <v>56</v>
@@ -5073,18 +5132,18 @@
         <v>300</v>
       </c>
       <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
         <v>9</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>10</v>
-      </c>
-      <c r="F195" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B196">
         <v>6</v>
@@ -5093,18 +5152,18 @@
         <v>284</v>
       </c>
       <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
         <v>9</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>10</v>
-      </c>
-      <c r="F196" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B197">
         <v>63</v>
@@ -5113,18 +5172,18 @@
         <v>296</v>
       </c>
       <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
         <v>9</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>10</v>
-      </c>
-      <c r="F197" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B198">
         <v>64</v>
@@ -5133,18 +5192,18 @@
         <v>298</v>
       </c>
       <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
         <v>9</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B199">
         <v>69</v>
@@ -5153,18 +5212,18 @@
         <v>296</v>
       </c>
       <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
         <v>9</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>10</v>
-      </c>
-      <c r="F199" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B200">
         <v>70</v>
@@ -5173,18 +5232,18 @@
         <v>297</v>
       </c>
       <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
         <v>9</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>10</v>
-      </c>
-      <c r="F200" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B201">
         <v>8</v>
@@ -5193,18 +5252,18 @@
         <v>284</v>
       </c>
       <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
         <v>9</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>10</v>
-      </c>
-      <c r="F201" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B202">
         <v>9</v>
@@ -5213,18 +5272,18 @@
         <v>295</v>
       </c>
       <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
         <v>9</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>10</v>
-      </c>
-      <c r="F202" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B203">
         <v>9</v>
@@ -5233,13 +5292,13 @@
         <v>288</v>
       </c>
       <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
         <v>13</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>14</v>
-      </c>
-      <c r="F203" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5251,7 +5310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5267,42 +5326,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>234</v>
-      </c>
-      <c r="I1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5319,16 +5378,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -5345,16 +5404,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5371,16 +5430,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -5397,16 +5456,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -5423,16 +5482,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -5449,16 +5508,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -5476,4 +5535,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2502</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2503</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2504</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2506</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Example.xlsx
+++ b/Data Example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8415" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Offers" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="261">
   <si>
     <t>Seqno</t>
   </si>
@@ -771,9 +771,6 @@
     <t>Type 7</t>
   </si>
   <si>
-    <t>16-3460</t>
-  </si>
-  <si>
     <t>16-3788</t>
   </si>
   <si>
@@ -838,13 +835,25 @@
   </si>
   <si>
     <t>Warranty Holidays</t>
+  </si>
+  <si>
+    <t>Total Contract Value Calculator</t>
+  </si>
+  <si>
+    <t>HourPrice</t>
+  </si>
+  <si>
+    <t>TCV</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +863,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -881,11 +899,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,7 +1231,7 @@
   <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1254,33 +1274,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4099</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4098</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1294,53 +1314,53 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>4097</v>
       </c>
       <c r="C4">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="B5">
+        <v>4096</v>
+      </c>
+      <c r="C5">
+        <v>290</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>307</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4095</v>
       </c>
       <c r="C6">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1354,73 +1374,76 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="B7">
+        <v>4094</v>
+      </c>
+      <c r="C7">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>296</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>4093</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>4093</v>
       </c>
       <c r="C9">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>4092</v>
       </c>
       <c r="C10">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1431,33 +1454,36 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>4091</v>
       </c>
       <c r="C11">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>4090</v>
       </c>
       <c r="C12">
         <v>291</v>
@@ -1474,33 +1500,33 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>4089</v>
       </c>
       <c r="C13">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>4088</v>
       </c>
       <c r="C14">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1514,110 +1540,110 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4087</v>
       </c>
       <c r="C15">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4087</v>
       </c>
       <c r="C16">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>4086</v>
       </c>
       <c r="C17">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>4086</v>
       </c>
       <c r="C18">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="B19">
-        <v>2500</v>
+        <v>4086</v>
       </c>
       <c r="C19">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="B20">
-        <v>2502</v>
+        <v>4085</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -1634,53 +1660,53 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="B21">
-        <v>2503</v>
+        <v>4085</v>
       </c>
       <c r="C21">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B22">
-        <v>2504</v>
+        <v>4085</v>
       </c>
       <c r="C22">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="B23">
-        <v>2505</v>
+        <v>4084</v>
       </c>
       <c r="C23">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -1694,353 +1720,353 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="B24">
-        <v>2506</v>
+        <v>4084</v>
       </c>
       <c r="C24">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="B25">
-        <v>2507</v>
+        <v>4084</v>
       </c>
       <c r="C25">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="B26">
-        <v>2508</v>
+        <v>4083</v>
       </c>
       <c r="C26">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="B27">
-        <v>2509</v>
+        <v>4083</v>
       </c>
       <c r="C27">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="B28">
-        <v>2510</v>
+        <v>4082</v>
       </c>
       <c r="C28">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="B29">
-        <v>2511</v>
+        <v>4082</v>
       </c>
       <c r="C29">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="B30">
-        <v>2512</v>
+        <v>4081</v>
       </c>
       <c r="C30">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="B31">
-        <v>2513</v>
+        <v>4081</v>
       </c>
       <c r="C31">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="B32">
-        <v>2514</v>
+        <v>4080</v>
       </c>
       <c r="C32">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="B33">
-        <v>2515</v>
+        <v>4080</v>
       </c>
       <c r="C33">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="B34">
-        <v>2516</v>
+        <v>4079</v>
       </c>
       <c r="C34">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="B35">
-        <v>2517</v>
+        <v>4079</v>
       </c>
       <c r="C35">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="B36">
-        <v>2518</v>
+        <v>4078</v>
       </c>
       <c r="C36">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="B37">
-        <v>2519</v>
+        <v>4076</v>
       </c>
       <c r="C37">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="B38">
-        <v>2520</v>
+        <v>4075</v>
       </c>
       <c r="C38">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="B39">
-        <v>2521</v>
+        <v>4074</v>
       </c>
       <c r="C39">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="B40">
-        <v>2522</v>
+        <v>4073</v>
       </c>
       <c r="C40">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="B41">
-        <v>2523</v>
+        <v>4071</v>
       </c>
       <c r="C41">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
@@ -2051,19 +2077,16 @@
       <c r="F41" t="s">
         <v>33</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B42">
-        <v>2524</v>
+        <v>4070</v>
       </c>
       <c r="C42">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -2075,15 +2098,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="B43">
-        <v>2525</v>
+        <v>4069</v>
       </c>
       <c r="C43">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
@@ -2095,15 +2118,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B44">
-        <v>2526</v>
+        <v>4068</v>
       </c>
       <c r="C44">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
         <v>31</v>
@@ -2115,15 +2138,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="B45">
-        <v>2527</v>
+        <v>4067</v>
       </c>
       <c r="C45">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="D45" t="s">
         <v>31</v>
@@ -2135,15 +2158,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="B46">
-        <v>2528</v>
+        <v>4066</v>
       </c>
       <c r="C46">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
@@ -2155,15 +2178,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="B47">
-        <v>2529</v>
+        <v>4065</v>
       </c>
       <c r="C47">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
@@ -2175,15 +2198,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="B48">
-        <v>2530</v>
+        <v>4064</v>
       </c>
       <c r="C48">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
@@ -2197,13 +2220,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="B49">
-        <v>2531</v>
+        <v>4063</v>
       </c>
       <c r="C49">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
@@ -2217,13 +2240,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="B50">
-        <v>2532</v>
+        <v>4056</v>
       </c>
       <c r="C50">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
@@ -2237,13 +2260,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="B51">
-        <v>2533</v>
+        <v>4055</v>
       </c>
       <c r="C51">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
@@ -2257,73 +2280,73 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="B52">
-        <v>2534</v>
+        <v>4049</v>
       </c>
       <c r="C52">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="B53">
-        <v>2535</v>
+        <v>4048</v>
       </c>
       <c r="C53">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B54">
-        <v>2536</v>
+        <v>4047</v>
       </c>
       <c r="C54">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B55">
-        <v>2537</v>
+        <v>4046</v>
       </c>
       <c r="C55">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
@@ -2337,13 +2360,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B56">
-        <v>2538</v>
+        <v>4045</v>
       </c>
       <c r="C56">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
         <v>31</v>
@@ -2357,333 +2380,333 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="B57">
-        <v>2539</v>
+        <v>4040</v>
       </c>
       <c r="C57">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B58">
-        <v>2540</v>
+        <v>4039</v>
       </c>
       <c r="C58">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="B59">
-        <v>2541</v>
+        <v>4038</v>
       </c>
       <c r="C59">
         <v>336</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B60">
-        <v>2542</v>
+        <v>4037</v>
       </c>
       <c r="C60">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="B61">
-        <v>2543</v>
+        <v>4036</v>
       </c>
       <c r="C61">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B62">
-        <v>2544</v>
+        <v>4035</v>
       </c>
       <c r="C62">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="B63">
-        <v>2545</v>
+        <v>4032</v>
       </c>
       <c r="C63">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B64">
-        <v>2546</v>
+        <v>4031</v>
       </c>
       <c r="C64">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B65">
-        <v>2547</v>
+        <v>4030</v>
       </c>
       <c r="C65">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B66">
-        <v>2548</v>
+        <v>4029</v>
       </c>
       <c r="C66">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B67">
-        <v>2549</v>
+        <v>4029</v>
       </c>
       <c r="C67">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B68">
-        <v>2550</v>
+        <v>4028</v>
       </c>
       <c r="C68">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B69">
-        <v>2551</v>
+        <v>4028</v>
       </c>
       <c r="C69">
         <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B70">
-        <v>2552</v>
+        <v>4027</v>
       </c>
       <c r="C70">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B71">
-        <v>2553</v>
+        <v>4026</v>
       </c>
       <c r="C71">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B72">
-        <v>2554</v>
+        <v>4025</v>
       </c>
       <c r="C72">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B73">
-        <v>2555</v>
+        <v>4008</v>
       </c>
       <c r="C73">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D73" t="s">
         <v>31</v>
@@ -2697,13 +2720,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B74">
-        <v>2556</v>
+        <v>4007</v>
       </c>
       <c r="C74">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
@@ -2717,13 +2740,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B75">
-        <v>2557</v>
+        <v>4006</v>
       </c>
       <c r="C75">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
@@ -2737,13 +2760,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B76">
-        <v>2558</v>
+        <v>4005</v>
       </c>
       <c r="C76">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
         <v>31</v>
@@ -2757,13 +2780,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B77">
-        <v>2559</v>
+        <v>2583</v>
       </c>
       <c r="C77">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -2777,10 +2800,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B78">
-        <v>2560</v>
+        <v>2582</v>
       </c>
       <c r="C78">
         <v>344</v>
@@ -2797,13 +2820,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B79">
-        <v>2561</v>
+        <v>2581</v>
       </c>
       <c r="C79">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
@@ -2817,13 +2840,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B80">
-        <v>2563</v>
+        <v>2580</v>
       </c>
       <c r="C80">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="D80" t="s">
         <v>31</v>
@@ -2837,13 +2860,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B81">
-        <v>2564</v>
+        <v>2579</v>
       </c>
       <c r="C81">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -2857,13 +2880,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B82">
-        <v>2565</v>
+        <v>2578</v>
       </c>
       <c r="C82">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="D82" t="s">
         <v>31</v>
@@ -2877,13 +2900,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B83">
-        <v>2566</v>
+        <v>2577</v>
       </c>
       <c r="C83">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D83" t="s">
         <v>31</v>
@@ -2897,13 +2920,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B84">
-        <v>2567</v>
+        <v>2576</v>
       </c>
       <c r="C84">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -2917,13 +2940,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B85">
-        <v>2568</v>
+        <v>2575</v>
       </c>
       <c r="C85">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -2937,10 +2960,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B86">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="C86">
         <v>310</v>
@@ -2957,13 +2980,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B87">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="C87">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -2977,13 +3000,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="C88">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -2997,13 +3020,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C89">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -3017,13 +3040,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B90">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="C90">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -3037,10 +3060,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="C91">
         <v>310</v>
@@ -3057,13 +3080,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="C92">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -3077,13 +3100,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>2576</v>
+        <v>2567</v>
       </c>
       <c r="C93">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -3097,13 +3120,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>2577</v>
+        <v>2566</v>
       </c>
       <c r="C94">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -3117,13 +3140,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>2578</v>
+        <v>2565</v>
       </c>
       <c r="C95">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -3137,13 +3160,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>2579</v>
+        <v>2564</v>
       </c>
       <c r="C96">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -3157,13 +3180,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B97">
-        <v>2580</v>
+        <v>2563</v>
       </c>
       <c r="C97">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -3177,13 +3200,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B98">
-        <v>2581</v>
+        <v>2561</v>
       </c>
       <c r="C98">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
@@ -3197,10 +3220,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B99">
-        <v>2582</v>
+        <v>2560</v>
       </c>
       <c r="C99">
         <v>344</v>
@@ -3217,13 +3240,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B100">
-        <v>2583</v>
+        <v>2559</v>
       </c>
       <c r="C100">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
@@ -3237,333 +3260,333 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B101">
-        <v>26</v>
+        <v>2558</v>
       </c>
       <c r="C101">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B102">
-        <v>27</v>
+        <v>2557</v>
       </c>
       <c r="C102">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B103">
-        <v>27</v>
+        <v>2556</v>
       </c>
       <c r="C103">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>2555</v>
       </c>
       <c r="C104">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2554</v>
       </c>
       <c r="C105">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B106">
-        <v>32</v>
+        <v>2553</v>
       </c>
       <c r="C106">
-        <v>406</v>
+        <v>302</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B107">
-        <v>33</v>
+        <v>2552</v>
       </c>
       <c r="C107">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B108">
-        <v>34</v>
+        <v>2551</v>
       </c>
       <c r="C108">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="B109">
-        <v>34</v>
+        <v>2550</v>
       </c>
       <c r="C109">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B110">
-        <v>36</v>
+        <v>2549</v>
       </c>
       <c r="C110">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B111">
-        <v>36</v>
+        <v>2548</v>
       </c>
       <c r="C111">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B112">
-        <v>38</v>
+        <v>2547</v>
       </c>
       <c r="C112">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B113">
-        <v>39</v>
+        <v>2546</v>
       </c>
       <c r="C113">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B114">
-        <v>39</v>
+        <v>2545</v>
       </c>
       <c r="C114">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>2544</v>
       </c>
       <c r="C115">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2543</v>
       </c>
       <c r="C116">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B117">
-        <v>4005</v>
+        <v>2542</v>
       </c>
       <c r="C117">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -3577,13 +3600,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B118">
-        <v>4006</v>
+        <v>2541</v>
       </c>
       <c r="C118">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -3597,13 +3620,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="B119">
-        <v>4007</v>
+        <v>2540</v>
       </c>
       <c r="C119">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -3617,13 +3640,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B120">
-        <v>4008</v>
+        <v>2539</v>
       </c>
       <c r="C120">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -3637,434 +3660,437 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B121">
-        <v>4025</v>
+        <v>2538</v>
       </c>
       <c r="C121">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D121" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B122">
-        <v>4026</v>
+        <v>2537</v>
       </c>
       <c r="C122">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E122" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B123">
-        <v>4027</v>
+        <v>2536</v>
       </c>
       <c r="C123">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="B124">
-        <v>4028</v>
+        <v>2535</v>
       </c>
       <c r="C124">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E124" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="B125">
-        <v>4028</v>
+        <v>2534</v>
       </c>
       <c r="C125">
         <v>344</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="B126">
-        <v>4029</v>
+        <v>2533</v>
       </c>
       <c r="C126">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D126" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="B127">
-        <v>4029</v>
+        <v>2532</v>
       </c>
       <c r="C127">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B128">
-        <v>4030</v>
+        <v>2531</v>
       </c>
       <c r="C128">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D128" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="B129">
-        <v>4031</v>
+        <v>2530</v>
       </c>
       <c r="C129">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B130">
-        <v>4032</v>
+        <v>2529</v>
       </c>
       <c r="C130">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D130" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="B131">
-        <v>4035</v>
+        <v>2528</v>
       </c>
       <c r="C131">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E131" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B132">
-        <v>4036</v>
+        <v>2527</v>
       </c>
       <c r="C132">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="B133">
-        <v>4037</v>
+        <v>2526</v>
       </c>
       <c r="C133">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D133" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E133" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="B134">
-        <v>4038</v>
+        <v>2525</v>
       </c>
       <c r="C134">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B135">
-        <v>4039</v>
+        <v>2524</v>
       </c>
       <c r="C135">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="B136">
-        <v>4040</v>
+        <v>2523</v>
       </c>
       <c r="C136">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D136" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E136" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="B137">
-        <v>4045</v>
+        <v>2522</v>
       </c>
       <c r="C137">
+        <v>331</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138">
+        <v>2521</v>
+      </c>
+      <c r="C138">
+        <v>330</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139">
+        <v>2520</v>
+      </c>
+      <c r="C139">
+        <v>327</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140">
+        <v>2519</v>
+      </c>
+      <c r="C140">
+        <v>330</v>
+      </c>
+      <c r="D140" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141">
+        <v>2518</v>
+      </c>
+      <c r="C141">
+        <v>325</v>
+      </c>
+      <c r="D141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142">
+        <v>2517</v>
+      </c>
+      <c r="C142">
         <v>333</v>
       </c>
-      <c r="D137" t="s">
-        <v>31</v>
-      </c>
-      <c r="E137" t="s">
-        <v>32</v>
-      </c>
-      <c r="F137" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>164</v>
-      </c>
-      <c r="B138">
-        <v>4046</v>
-      </c>
-      <c r="C138">
-        <v>337</v>
-      </c>
-      <c r="D138" t="s">
-        <v>31</v>
-      </c>
-      <c r="E138" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139">
-        <v>4047</v>
-      </c>
-      <c r="C139">
-        <v>344</v>
-      </c>
-      <c r="D139" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" t="s">
-        <v>152</v>
-      </c>
-      <c r="F139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140">
-        <v>4048</v>
-      </c>
-      <c r="C140">
-        <v>336</v>
-      </c>
-      <c r="D140" t="s">
-        <v>139</v>
-      </c>
-      <c r="E140" t="s">
-        <v>140</v>
-      </c>
-      <c r="F140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141">
-        <v>4049</v>
-      </c>
-      <c r="C141">
-        <v>336</v>
-      </c>
-      <c r="D141" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" t="s">
-        <v>140</v>
-      </c>
-      <c r="F141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>168</v>
-      </c>
-      <c r="B142">
-        <v>4055</v>
-      </c>
-      <c r="C142">
-        <v>343</v>
-      </c>
       <c r="D142" t="s">
         <v>31</v>
       </c>
@@ -4075,15 +4101,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="B143">
-        <v>4056</v>
+        <v>2516</v>
       </c>
       <c r="C143">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="D143" t="s">
         <v>31</v>
@@ -4095,15 +4121,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="B144">
-        <v>4063</v>
+        <v>2515</v>
       </c>
       <c r="C144">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="D144" t="s">
         <v>31</v>
@@ -4117,13 +4143,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="B145">
-        <v>4064</v>
+        <v>2514</v>
       </c>
       <c r="C145">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D145" t="s">
         <v>31</v>
@@ -4137,13 +4163,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="B146">
-        <v>4065</v>
+        <v>2513</v>
       </c>
       <c r="C146">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D146" t="s">
         <v>31</v>
@@ -4157,13 +4183,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="B147">
-        <v>4066</v>
+        <v>2512</v>
       </c>
       <c r="C147">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="D147" t="s">
         <v>31</v>
@@ -4177,13 +4203,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="B148">
-        <v>4067</v>
+        <v>2511</v>
       </c>
       <c r="C148">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="D148" t="s">
         <v>31</v>
@@ -4197,13 +4223,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="B149">
-        <v>4068</v>
+        <v>2510</v>
       </c>
       <c r="C149">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="D149" t="s">
         <v>31</v>
@@ -4217,13 +4243,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="B150">
-        <v>4069</v>
+        <v>2509</v>
       </c>
       <c r="C150">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="D150" t="s">
         <v>31</v>
@@ -4237,13 +4263,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="B151">
-        <v>4070</v>
+        <v>2508</v>
       </c>
       <c r="C151">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D151" t="s">
         <v>31</v>
@@ -4257,13 +4283,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="B152">
-        <v>4071</v>
+        <v>2507</v>
       </c>
       <c r="C152">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D152" t="s">
         <v>31</v>
@@ -4277,553 +4303,553 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="B153">
-        <v>4073</v>
+        <v>2506</v>
       </c>
       <c r="C153">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="B154">
-        <v>4074</v>
+        <v>2505</v>
       </c>
       <c r="C154">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="B155">
-        <v>4075</v>
+        <v>2504</v>
       </c>
       <c r="C155">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="B156">
-        <v>4076</v>
+        <v>2503</v>
       </c>
       <c r="C156">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="B157">
-        <v>4078</v>
+        <v>2502</v>
       </c>
       <c r="C157">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="B158">
-        <v>4079</v>
+        <v>2500</v>
       </c>
       <c r="C158">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="D158" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E158" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="B159">
-        <v>4079</v>
+        <v>70</v>
       </c>
       <c r="C159">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B160">
-        <v>4080</v>
+        <v>69</v>
       </c>
       <c r="C160">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="B161">
-        <v>4080</v>
+        <v>64</v>
       </c>
       <c r="C161">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="B162">
-        <v>4081</v>
+        <v>63</v>
       </c>
       <c r="C162">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D162" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B163">
-        <v>4081</v>
+        <v>56</v>
       </c>
       <c r="C163">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B164">
-        <v>4082</v>
+        <v>55</v>
       </c>
       <c r="C164">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D164" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B165">
-        <v>4082</v>
+        <v>43</v>
       </c>
       <c r="C165">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B166">
-        <v>4083</v>
+        <v>41</v>
       </c>
       <c r="C166">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="D166" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="B167">
-        <v>4083</v>
+        <v>39</v>
       </c>
       <c r="C167">
-        <v>289</v>
+        <v>406</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="B168">
-        <v>4084</v>
+        <v>39</v>
       </c>
       <c r="C168">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D168" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B169">
-        <v>4084</v>
+        <v>38</v>
       </c>
       <c r="C169">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="D169" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E169" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F169" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="B170">
-        <v>4084</v>
+        <v>36</v>
       </c>
       <c r="C170">
-        <v>289</v>
+        <v>406</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="B171">
-        <v>4085</v>
+        <v>36</v>
       </c>
       <c r="C171">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B172">
-        <v>4085</v>
+        <v>34</v>
       </c>
       <c r="C172">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E172" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F172" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="B173">
-        <v>4085</v>
+        <v>34</v>
       </c>
       <c r="C173">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B174">
-        <v>4086</v>
+        <v>33</v>
       </c>
       <c r="C174">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="D174" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="B175">
-        <v>4086</v>
+        <v>32</v>
       </c>
       <c r="C175">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="D175" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E175" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F175" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="B176">
-        <v>4086</v>
+        <v>27</v>
       </c>
       <c r="C176">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="B177">
-        <v>4087</v>
+        <v>27</v>
       </c>
       <c r="C177">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="B178">
-        <v>4087</v>
+        <v>26</v>
       </c>
       <c r="C178">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="D178" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="B179">
-        <v>4088</v>
+        <v>22</v>
       </c>
       <c r="C179">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="B180">
-        <v>4089</v>
+        <v>22</v>
       </c>
       <c r="C180">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -4835,35 +4861,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="B181">
-        <v>4090</v>
+        <v>19</v>
       </c>
       <c r="C181">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="B182">
-        <v>4091</v>
+        <v>19</v>
       </c>
       <c r="C182">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -4875,81 +4901,75 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="B183">
-        <v>4092</v>
+        <v>18</v>
       </c>
       <c r="C183">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184">
+        <v>18</v>
+      </c>
+      <c r="C184">
+        <v>291</v>
+      </c>
+      <c r="D184" t="s">
         <v>12</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>13</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>14</v>
       </c>
-      <c r="G183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>210</v>
-      </c>
-      <c r="B184">
-        <v>4093</v>
-      </c>
-      <c r="C184">
-        <v>302</v>
-      </c>
-      <c r="D184" t="s">
-        <v>31</v>
-      </c>
-      <c r="E184" t="s">
-        <v>32</v>
-      </c>
-      <c r="F184" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="B185">
-        <v>4093</v>
+        <v>16</v>
       </c>
       <c r="C185">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="B186">
-        <v>4094</v>
+        <v>16</v>
       </c>
       <c r="C186">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
@@ -4961,35 +4981,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="B187">
-        <v>4095</v>
+        <v>13</v>
       </c>
       <c r="C187">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D187" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188">
         <v>13</v>
       </c>
-      <c r="F187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>214</v>
-      </c>
-      <c r="B188">
-        <v>4096</v>
-      </c>
       <c r="C188">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -5001,35 +5021,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="B189">
-        <v>4097</v>
+        <v>12</v>
       </c>
       <c r="C189">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190">
         <v>12</v>
       </c>
-      <c r="E189" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>216</v>
-      </c>
-      <c r="B190">
-        <v>4098</v>
-      </c>
       <c r="C190">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
@@ -5041,35 +5061,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="B191">
-        <v>4099</v>
+        <v>10</v>
       </c>
       <c r="C191">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B192">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C192">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
@@ -5083,33 +5103,33 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B193">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B194">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C194">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -5123,13 +5143,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B195">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -5143,13 +5163,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B196">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D196" t="s">
         <v>8</v>
@@ -5163,33 +5183,33 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="B197">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="B198">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D198" t="s">
         <v>8</v>
@@ -5203,33 +5223,33 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="B199">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C199">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E199" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="B200">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C200">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D200" t="s">
         <v>8</v>
@@ -5243,33 +5263,33 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="B202">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C202">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D202" t="s">
         <v>8</v>
@@ -5283,13 +5303,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="B203">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
@@ -5302,6 +5322,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H203">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5310,7 +5333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5351,9 +5376,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
@@ -5378,7 +5400,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>151</v>
@@ -5404,7 +5426,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
@@ -5430,7 +5452,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -5456,7 +5478,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>139</v>
@@ -5482,7 +5504,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -5508,7 +5530,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -5539,10 +5561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,136 +5576,164 @@
     <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2502</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2503</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2504</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
         <v>252</v>
       </c>
-      <c r="E4" t="s">
-        <v>253</v>
-      </c>
       <c r="H4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" t="s">
         <v>252</v>
       </c>
-      <c r="I4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2505</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
         <v>252</v>
       </c>
-      <c r="E5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2506</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
         <v>252</v>
       </c>
-      <c r="E6" t="s">
-        <v>253</v>
+      <c r="L6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M6">
+        <v>10.5</v>
+      </c>
+      <c r="N6">
+        <v>10.5</v>
+      </c>
+      <c r="O6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
